--- a/tabla.xlsx
+++ b/tabla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa4da74da7cb80dd/BaltazarVazquez/WEB/Aprendiendo/TablasExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{ABE215E8-5D55-42DE-B887-91112820C14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B0BDC8-E3B1-4DEF-A083-9EC271AAA6D3}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{ABE215E8-5D55-42DE-B887-91112820C14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0912112-55E7-4E1C-9297-B2387BB784E0}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{A871B6EF-53BA-46C9-B0B0-D51A63A041CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A871B6EF-53BA-46C9-B0B0-D51A63A041CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>nombre</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Balta</t>
+  </si>
+  <si>
+    <t>Rafa</t>
+  </si>
+  <si>
+    <t>mike</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E42598-729D-4378-9781-55C8344CD612}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,6 +537,28 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C10">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
